--- a/Lab4/BurnDownChart.xlsx
+++ b/Lab4/BurnDownChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thehi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HH\Wyklady\VI_Semestr\Przedmiot Fakultatywny\Cwiczenia\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8077F-37D0-4C44-BFE0-5021B3BB1EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F61C7A-865B-4C6E-A46C-4ED65FCB15E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{ECC9998C-59D8-486F-AEDC-6A4058C540C3}"/>
   </bookViews>
@@ -546,24 +546,27 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1695,7 +1698,7 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1748,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1756,7 +1759,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -1767,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -1778,7 +1781,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -1789,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -1800,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -1811,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1821,7 +1824,9 @@
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
